--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Majid1363FX.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Majid1363FX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.24 19:27</t>
+          <t>2023.11.27 15:15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.89706</t>
+          <t>24.797</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 04:14</t>
+          <t>2023.11.27 15:24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.89788</t>
+          <t>24.759</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-3,23 USD</t>
+          <t>1,85 USD</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,39 +545,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.24 15:51</t>
+          <t>2023.11.24 19:27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.79657</t>
+          <t>0.89706</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 03:30</t>
+          <t>2023.11.27 04:14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23.7151</t>
+          <t>0.89788</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,38 USD</t>
+          <t>-3,23 USD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EURZAR</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,39 +587,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.24 12:49</t>
+          <t>2023.11.24 15:51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.59525</t>
+          <t>23.79657</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 02:06</t>
+          <t>2023.11.27 03:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20.5559</t>
+          <t>23.7151</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2,04 USD</t>
+          <t>21,38 USD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>EURZAR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,39 +629,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.24 10:52</t>
+          <t>2023.11.24 12:49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.753</t>
+          <t>20.59525</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.24 19:37</t>
+          <t>2023.11.27 02:06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23.7376</t>
+          <t>20.5559</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1,54 USD</t>
+          <t>2,04 USD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -671,34 +671,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.24 19:01</t>
+          <t>2023.11.24 10:52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.89666</t>
+          <t>23.753</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.24 19:11</t>
+          <t>2023.11.24 19:37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>23.7376</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-4,42 USD</t>
+          <t>1,54 USD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -713,39 +713,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.23 12:49</t>
+          <t>2023.11.24 19:01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.89827</t>
+          <t>0.89666</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.24 18:14</t>
+          <t>2023.11.24 19:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8965</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5,02 USD</t>
+          <t>-4,42 USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,27 +755,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.23 12:49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.8034</t>
+          <t>0.89827</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.24 15:56</t>
+          <t>2023.11.24 18:14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23.7866</t>
+          <t>0.8965</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,84 USD</t>
+          <t>5,02 USD</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.24 10:30</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8839</t>
+          <t>23.8034</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.24 10:31</t>
+          <t>2023.11.24 15:56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.88381</t>
+          <t>23.7866</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,84 USD</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -839,27 +839,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.24 10:29</t>
+          <t>2023.11.24 10:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.25576</t>
+          <t>0.8839</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.24 10:30</t>
+          <t>2023.11.24 10:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.25557</t>
+          <t>0.88381</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -871,37 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GBPSEK</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.24 03:44</t>
+          <t>2023.11.24 10:29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.16293</t>
+          <t>1.25576</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.24 10:11</t>
+          <t>2023.11.24 10:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13.17341</t>
+          <t>1.25557</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -913,91 +913,91 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPSEK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.23 15:29</t>
+          <t>2023.11.24 03:44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.71719</t>
+          <t>13.16293</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.24 08:39</t>
+          <t>2023.11.24 10:11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.71698</t>
+          <t>13.17341</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,95 USD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.24 08:34</t>
+          <t>2023.11.23 15:29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.25308</t>
+          <t>1.71719</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.24 08:38</t>
+          <t>2023.11.24 08:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.25319</t>
+          <t>1.71698</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1007,34 +1007,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.22 17:12</t>
+          <t>2023.11.24 08:34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.89767</t>
+          <t>1.25308</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.23 12:34</t>
+          <t>2023.11.24 08:38</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.89831</t>
+          <t>1.25319</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1,26 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1044,39 +1044,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.22 13:51</t>
+          <t>2023.11.22 17:12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.90033</t>
+          <t>0.89767</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.22 23:21</t>
+          <t>2023.11.23 12:34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.89588</t>
+          <t>0.89831</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12,82 USD</t>
+          <t>1,26 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1086,39 +1086,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.21 16:48</t>
+          <t>2023.11.22 13:51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.89921</t>
+          <t>0.90033</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.22 13:51</t>
+          <t>2023.11.22 23:21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.90034</t>
+          <t>0.89588</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2,33 USD</t>
+          <t>12,82 USD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1128,39 +1128,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.22 09:42</t>
+          <t>2023.11.21 16:48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.89644</t>
+          <t>0.89921</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.22 12:06</t>
+          <t>2023.11.22 13:51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.89951</t>
+          <t>0.90034</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-9,14 USD</t>
+          <t>2,33 USD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1175,34 +1175,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.22 10:20</t>
+          <t>2023.11.22 09:42</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.89844</t>
+          <t>0.89644</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.22 11:36</t>
+          <t>2023.11.22 12:06</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.89839</t>
+          <t>0.89951</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-0,03 USD</t>
+          <t>-9,14 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1212,39 +1212,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.22 09:33</t>
+          <t>2023.11.22 10:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.89582</t>
+          <t>0.89844</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.22 09:36</t>
+          <t>2023.11.22 11:36</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.89593</t>
+          <t>0.89839</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>-0,03 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1254,39 +1254,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.21 17:55</t>
+          <t>2023.11.22 09:33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.89935</t>
+          <t>0.89582</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.22 09:34</t>
+          <t>2023.11.22 09:36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.89586</t>
+          <t>0.89593</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10,00 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1301,39 +1301,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.22 00:32</t>
+          <t>2023.11.21 17:55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.89832</t>
+          <t>0.89935</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.22 01:43</t>
+          <t>2023.11.22 09:34</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.89873</t>
+          <t>0.89586</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-3,44 USD</t>
+          <t>10,00 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1343,39 +1343,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.21 21:35</t>
+          <t>2023.11.22 00:32</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23.3309</t>
+          <t>0.89832</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.21 23:47</t>
+          <t>2023.11.22 01:43</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23.25979</t>
+          <t>0.89873</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3,77 USD</t>
+          <t>-3,44 USD</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1385,34 +1385,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.21 11:46</t>
+          <t>2023.11.21 21:35</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.90077</t>
+          <t>23.3309</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.21 17:53</t>
+          <t>2023.11.21 23:47</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.89939</t>
+          <t>23.25979</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3,85 USD</t>
+          <t>3,77 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1422,123 +1422,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.21 16:47</t>
+          <t>2023.11.21 11:46</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.89919</t>
+          <t>0.90077</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.21 16:48</t>
+          <t>2023.11.21 17:53</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.89922</t>
+          <t>0.89939</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-0,12 USD</t>
+          <t>3,85 USD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.07 18:32</t>
+          <t>2023.11.21 16:47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>184.718</t>
+          <t>0.89919</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.20 11:40</t>
+          <t>2023.11.21 16:48</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>185.164</t>
+          <t>0.89922</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-6,10 USD</t>
+          <t>-0,12 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.20 03:43</t>
+          <t>2023.11.07 18:32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.89631</t>
+          <t>184.718</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.20 05:29</t>
+          <t>2023.11.20 11:40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.89783</t>
+          <t>185.164</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3,19 USD</t>
+          <t>-6,10 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1548,44 +1548,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.20 00:31</t>
+          <t>2023.11.20 03:43</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.89369</t>
+          <t>0.89631</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.20 02:28</t>
+          <t>2023.11.20 05:29</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.89504</t>
+          <t>0.89783</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-10,30 USD</t>
+          <t>3,19 USD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1595,27 +1595,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.18 06:04</t>
+          <t>2023.11.20 00:31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10110</t>
+          <t>0.89369</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.18 06:05</t>
+          <t>2023.11.20 02:28</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10071</t>
+          <t>0.89504</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>-10,30 USD</t>
         </is>
       </c>
     </row>
@@ -1637,39 +1637,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.16 22:18</t>
+          <t>2023.11.18 06:04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13348</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.18 05:55</t>
+          <t>2023.11.18 06:05</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11336</t>
+          <t>10071</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>19,96 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1679,39 +1679,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.17 13:13</t>
+          <t>2023.11.16 22:18</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.8923</t>
+          <t>13348</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.17 15:35</t>
+          <t>2023.11.18 05:55</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.89131</t>
+          <t>11336</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3,38 USD</t>
+          <t>19,96 USD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1721,27 +1721,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.17 10:11</t>
+          <t>2023.11.17 13:13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15439</t>
+          <t>0.8923</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.17 13:15</t>
+          <t>2023.11.17 15:35</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14411</t>
+          <t>0.89131</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10,09 USD</t>
+          <t>3,38 USD</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.17 09:41</t>
+          <t>2023.11.17 10:11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15064</t>
+          <t>15439</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14451</t>
+          <t>14411</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5,95 USD</t>
+          <t>10,09 USD</t>
         </is>
       </c>
     </row>
@@ -1795,49 +1795,49 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GBPSEK</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.17 09:36</t>
+          <t>2023.11.17 09:41</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13.1199</t>
+          <t>15064</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.17 12:49</t>
+          <t>2023.11.17 13:15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13.12487</t>
+          <t>14451</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,42 USD</t>
+          <t>5,95 USD</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPSEK</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.17 03:16</t>
+          <t>2023.11.17 09:36</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.88879</t>
+          <t>13.1199</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1862,12 +1862,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.8921</t>
+          <t>13.12487</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7,09 USD</t>
+          <t>0,42 USD</t>
         </is>
       </c>
     </row>
@@ -1879,44 +1879,44 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.14 05:13</t>
+          <t>2023.11.17 03:16</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>186.143</t>
+          <t>0.88879</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.17 10:02</t>
+          <t>2023.11.17 12:49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>185.524</t>
+          <t>0.8921</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12,26 USD</t>
+          <t>7,09 USD</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1931,39 +1931,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.16 22:59</t>
+          <t>2023.11.14 05:13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>187.115</t>
+          <t>186.143</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.17 08:41</t>
+          <t>2023.11.17 10:02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>186.331</t>
+          <t>185.524</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>20,65 USD</t>
+          <t>12,26 USD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1973,39 +1973,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.17 03:21</t>
+          <t>2023.11.16 22:59</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14175</t>
+          <t>187.115</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.17 03:28</t>
+          <t>2023.11.17 08:41</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14015</t>
+          <t>186.331</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1,43 USD</t>
+          <t>20,65 USD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2015,39 +2015,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.16 10:47</t>
+          <t>2023.11.17 03:21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.88954</t>
+          <t>14175</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.17 03:08</t>
+          <t>2023.11.17 03:28</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.88877</t>
+          <t>14015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1,54 USD</t>
+          <t>1,43 USD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.16 21:33</t>
+          <t>2023.11.16 10:47</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13227</t>
+          <t>0.88954</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.16 22:14</t>
+          <t>2023.11.17 03:08</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13272</t>
+          <t>0.88877</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-0,61 USD</t>
+          <t>1,54 USD</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2099,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.16 21:22</t>
+          <t>2023.11.16 21:33</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13452</t>
+          <t>13227</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2114,24 +2114,24 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13276</t>
+          <t>13272</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1,60 USD</t>
+          <t>-0,61 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2141,34 +2141,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.15 14:56</t>
+          <t>2023.11.16 21:22</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>187.61</t>
+          <t>13452</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.16 22:13</t>
+          <t>2023.11.16 22:14</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>187.116</t>
+          <t>13276</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12,93 USD</t>
+          <t>1,60 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2183,39 +2183,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.16 00:59</t>
+          <t>2023.11.15 14:56</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>187.812</t>
+          <t>187.61</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.16 11:05</t>
+          <t>2023.11.16 22:13</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>187.651</t>
+          <t>187.116</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1,02 USD</t>
+          <t>12,93 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2225,39 +2225,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.15 17:18</t>
+          <t>2023.11.16 00:59</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.89137</t>
+          <t>187.812</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.15 19:09</t>
+          <t>2023.11.16 11:05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.89069</t>
+          <t>187.651</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1,35 USD</t>
+          <t>1,02 USD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2267,34 +2267,34 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.14 16:14</t>
+          <t>2023.11.15 17:18</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>187.73</t>
+          <t>0.89137</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.15 14:54</t>
+          <t>2023.11.15 19:09</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>187.668</t>
+          <t>0.89069</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1,46 USD</t>
+          <t>1,35 USD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2309,39 +2309,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.14 20:33</t>
+          <t>2023.11.14 16:14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>187.925</t>
+          <t>187.73</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.15 14:53</t>
+          <t>2023.11.15 14:54</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>187.663</t>
+          <t>187.668</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1,69 USD</t>
+          <t>1,46 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2351,39 +2351,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.15 13:37</t>
+          <t>2023.11.14 20:33</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.89204</t>
+          <t>187.925</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.15 14:46</t>
+          <t>2023.11.15 14:53</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.88955</t>
+          <t>187.663</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>5,31 USD</t>
+          <t>1,69 USD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2393,27 +2393,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.14 14:51</t>
+          <t>2023.11.15 13:37</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>34687.6</t>
+          <t>0.89204</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.14 14:53</t>
+          <t>2023.11.15 14:46</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>34730.4</t>
+          <t>0.88955</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-4,78 USD</t>
+          <t>5,31 USD</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.14 14:50</t>
+          <t>2023.11.14 14:51</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>34680.2</t>
+          <t>34687.6</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2455,56 +2455,56 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-5,52 USD</t>
+          <t>-4,78 USD</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.08 20:07</t>
+          <t>2023.11.14 14:50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.88449</t>
+          <t>34680.2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.14 14:30</t>
+          <t>2023.11.14 14:53</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.88478</t>
+          <t>34730.4</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,82 USD</t>
+          <t>-5,52 USD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.14 12:21</t>
+          <t>2023.11.08 20:07</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.88129</t>
+          <t>0.88449</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.88316</t>
+          <t>0.88478</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>13,11 USD</t>
+          <t>0,82 USD</t>
         </is>
       </c>
     </row>
@@ -2551,37 +2551,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.14 12:08</t>
+          <t>2023.11.14 12:21</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>34336.8</t>
+          <t>0.88129</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.14 12:11</t>
+          <t>2023.11.14 14:30</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>34342.1</t>
+          <t>0.88316</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-1,03 USD</t>
+          <t>13,11 USD</t>
         </is>
       </c>
     </row>
@@ -2593,37 +2593,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.14 11:57</t>
+          <t>2023.11.14 12:08</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.88095</t>
+          <t>34336.8</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.14 12:04</t>
+          <t>2023.11.14 12:11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.88119</t>
+          <t>34342.1</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1,29 USD</t>
+          <t>-1,03 USD</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2650,76 +2650,76 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>34350.9</t>
+          <t>0.88095</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.14 12:01</t>
+          <t>2023.11.14 12:04</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>34369.5</t>
+          <t>0.88119</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1,36 USD</t>
+          <t>1,29 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.14 11:38</t>
+          <t>2023.11.14 11:57</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.88152</t>
+          <t>34350.9</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.14 11:49</t>
+          <t>2023.11.14 12:01</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.88127</t>
+          <t>34369.5</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0,68 USD</t>
+          <t>1,36 USD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2729,69 +2729,69 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.14 11:31</t>
+          <t>2023.11.14 11:38</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>186.524</t>
+          <t>0.88152</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.14 11:35</t>
+          <t>2023.11.14 11:49</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>186.513</t>
+          <t>0.88127</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,68 USD</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.13 20:02</t>
+          <t>2023.11.14 11:31</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.88043</t>
+          <t>186.524</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.14 11:33</t>
+          <t>2023.11.14 11:35</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.88166</t>
+          <t>186.513</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>8,44 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2813,81 +2813,81 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.13 15:17</t>
+          <t>2023.11.13 20:02</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.88004</t>
+          <t>0.88043</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.13 19:28</t>
+          <t>2023.11.14 11:33</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.88035</t>
+          <t>0.88166</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1,79 USD</t>
+          <t>8,44 USD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.13 10:36</t>
+          <t>2023.11.13 15:17</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>185.831</t>
+          <t>0.88004</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.13 16:12</t>
+          <t>2023.11.13 19:28</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>185.615</t>
+          <t>0.88035</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2,76 USD</t>
+          <t>1,79 USD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2897,39 +2897,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.13 15:44</t>
+          <t>2023.11.13 10:36</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>34251</t>
+          <t>185.831</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.13 15:49</t>
+          <t>2023.11.13 16:12</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>34243.4</t>
+          <t>185.615</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>2,76 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2939,34 +2939,34 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.13 10:28</t>
+          <t>2023.11.13 15:44</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.88052</t>
+          <t>34251</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.13 14:57</t>
+          <t>2023.11.13 15:49</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.88017</t>
+          <t>34243.4</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1,03 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2976,39 +2976,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.09 23:05</t>
+          <t>2023.11.13 10:28</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.87955</t>
+          <t>0.88052</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.13 14:56</t>
+          <t>2023.11.13 14:57</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.88005</t>
+          <t>0.88017</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3,17 USD</t>
+          <t>1,03 USD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3023,69 +3023,69 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.09 20:06</t>
+          <t>2023.11.09 23:05</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.88029</t>
+          <t>0.87955</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.13 10:28</t>
+          <t>2023.11.13 14:56</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.88044</t>
+          <t>0.88005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0,32 USD</t>
+          <t>3,17 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.10 15:32</t>
+          <t>2023.11.09 20:06</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>34027.2</t>
+          <t>0.88029</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.10 15:34</t>
+          <t>2023.11.13 10:28</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>34004.4</t>
+          <t>0.88044</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1,78 USD</t>
+          <t>0,32 USD</t>
         </is>
       </c>
     </row>
@@ -3107,39 +3107,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.10 13:54</t>
+          <t>2023.11.10 15:32</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>33971.3</t>
+          <t>34027.2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.10 14:36</t>
+          <t>2023.11.10 15:34</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>34010.8</t>
+          <t>34004.4</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-4,45 USD</t>
+          <t>1,78 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USDZAR</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3149,39 +3149,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.10 11:57</t>
+          <t>2023.11.10 13:54</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>18.7154</t>
+          <t>33971.3</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.10 12:59</t>
+          <t>2023.11.10 14:36</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18.7402</t>
+          <t>34010.8</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-2,75 USD</t>
+          <t>-4,45 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>USDZAR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,69 +3191,69 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.09 07:49</t>
+          <t>2023.11.10 11:57</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>161.486</t>
+          <t>18.7154</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.09 21:34</t>
+          <t>2023.11.10 12:59</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>161.474</t>
+          <t>18.7402</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,03 USD</t>
+          <t>-2,75 USD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.09 20:20</t>
+          <t>2023.11.09 07:49</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.87934</t>
+          <t>161.486</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.09 21:33</t>
+          <t>2023.11.09 21:34</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.87978</t>
+          <t>161.474</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2,74 USD</t>
+          <t>0,03 USD</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3275,76 +3275,76 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.09 20:22</t>
+          <t>2023.11.09 20:20</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>33896</t>
+          <t>0.87934</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.09 20:24</t>
+          <t>2023.11.09 21:33</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>33911.1</t>
+          <t>0.87978</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1,01 USD</t>
+          <t>2,74 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.09 20:05</t>
+          <t>2023.11.09 20:22</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.88013</t>
+          <t>33896</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.09 20:09</t>
+          <t>2023.11.09 20:24</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.88001</t>
+          <t>33911.1</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0,20 USD</t>
+          <t>1,01 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3354,39 +3354,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.09 19:09</t>
+          <t>2023.11.09 20:05</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.88159</t>
+          <t>0.88013</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.09 19:40</t>
+          <t>2023.11.09 20:09</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.88222</t>
+          <t>0.88001</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4,12 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3396,81 +3396,81 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.09 16:08</t>
+          <t>2023.11.09 19:09</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.88417</t>
+          <t>0.88159</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.09 17:29</t>
+          <t>2023.11.09 19:40</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.8838</t>
+          <t>0.88222</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1,11 USD</t>
+          <t>4,12 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.09 15:56</t>
+          <t>2023.11.09 16:08</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>34078.9</t>
+          <t>0.88417</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.09 17:09</t>
+          <t>2023.11.09 17:29</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>34095.4</t>
+          <t>0.8838</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2,30 USD</t>
+          <t>1,11 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3485,160 +3485,160 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.09 15:39</t>
+          <t>2023.11.09 15:56</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>34111.8</t>
+          <t>34078.9</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.09 16:07</t>
+          <t>2023.11.09 17:09</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>34010.3</t>
+          <t>34095.4</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-10,65 USD</t>
+          <t>2,30 USD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.09 09:53</t>
+          <t>2023.11.09 15:39</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.88389</t>
+          <t>34111.8</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.09 11:40</t>
+          <t>2023.11.09 16:07</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.88267</t>
+          <t>34010.3</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>4,20 USD</t>
+          <t>-10,65 USD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>XPDUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.08 13:35</t>
+          <t>2023.11.09 09:53</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1025.5</t>
+          <t>0.88389</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.09 10:48</t>
+          <t>2023.11.09 11:40</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1030.2</t>
+          <t>0.88267</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>4,65 USD</t>
+          <t>4,20 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>XPDUSD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.08 20:07</t>
+          <t>2023.11.08 13:35</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.88446</t>
+          <t>1025.5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.09 09:40</t>
+          <t>2023.11.09 10:48</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.88384</t>
+          <t>1030.2</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2,01 USD</t>
+          <t>4,65 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.08 18:45</t>
+          <t>2023.11.08 20:07</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.88549</t>
+          <t>0.88446</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.08 18:49</t>
+          <t>2023.11.09 09:40</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.88538</t>
+          <t>0.88384</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0,35 USD</t>
+          <t>2,01 USD</t>
         </is>
       </c>
     </row>
@@ -3695,27 +3695,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.08 13:38</t>
+          <t>2023.11.08 18:45</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.88553</t>
+          <t>0.88549</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.08 16:21</t>
+          <t>2023.11.08 18:49</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.88524</t>
+          <t>0.88538</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1,65 USD</t>
+          <t>0,35 USD</t>
         </is>
       </c>
     </row>
@@ -3727,37 +3727,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.08 16:08</t>
+          <t>2023.11.08 13:38</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>34195.4</t>
+          <t>0.88553</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.08 16:10</t>
+          <t>2023.11.08 16:21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>34209.2</t>
+          <t>0.88524</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0,88 USD</t>
+          <t>1,65 USD</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3779,39 +3779,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.08 11:13</t>
+          <t>2023.11.08 16:08</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.886</t>
+          <t>34195.4</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.08 15:11</t>
+          <t>2023.11.08 16:10</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.88643</t>
+          <t>34209.2</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2,67 USD</t>
+          <t>0,88 USD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>XPDUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3821,76 +3821,76 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.08 11:58</t>
+          <t>2023.11.08 11:13</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1023.4</t>
+          <t>0.886</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.08 13:30</t>
+          <t>2023.11.08 15:11</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1023.5</t>
+          <t>0.88643</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>2,67 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>XPDUSD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.08 11:13</t>
+          <t>2023.11.08 11:58</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.88593</t>
+          <t>1023.4</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.08 13:19</t>
+          <t>2023.11.08 13:30</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.88559</t>
+          <t>1023.5</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2,02 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3905,27 +3905,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.08 05:19</t>
+          <t>2023.11.08 11:13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.88626</t>
+          <t>0.88593</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.08 11:12</t>
+          <t>2023.11.08 13:19</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.88598</t>
+          <t>0.88559</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0,78 USD</t>
+          <t>2,02 USD</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3952,22 +3952,22 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.88627</t>
+          <t>0.88626</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.08 09:22</t>
+          <t>2023.11.08 11:12</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.88686</t>
+          <t>0.88598</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1,91 USD</t>
+          <t>0,78 USD</t>
         </is>
       </c>
     </row>
@@ -3989,81 +3989,81 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.07 04:36</t>
+          <t>2023.11.08 05:19</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.88626</t>
+          <t>0.88627</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.08 03:18</t>
+          <t>2023.11.08 09:22</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.88681</t>
+          <t>0.88686</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1,77 USD</t>
+          <t>1,91 USD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COCOA</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.07 10:51</t>
+          <t>2023.11.07 04:36</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3921.5</t>
+          <t>0.88626</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.07 18:26</t>
+          <t>2023.11.08 03:18</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3883.5</t>
+          <t>0.88681</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>7,20 USD</t>
+          <t>1,77 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>COCOA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4073,34 +4073,34 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.07 16:10</t>
+          <t>2023.11.07 10:51</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>34087.4</t>
+          <t>3921.5</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.07 16:13</t>
+          <t>2023.11.07 18:26</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>34113.7</t>
+          <t>3883.5</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-15,65 USD</t>
+          <t>7,20 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4115,39 +4115,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.07 15:31</t>
+          <t>2023.11.07 16:10</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>34051.4</t>
+          <t>34087.4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.07 15:41</t>
+          <t>2023.11.07 16:13</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>34037.7</t>
+          <t>34113.7</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0,87 USD</t>
+          <t>-15,65 USD</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4157,34 +4157,34 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.07 04:45</t>
+          <t>2023.11.07 15:31</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.88566</t>
+          <t>34051.4</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.07 07:04</t>
+          <t>2023.11.07 15:41</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.88327</t>
+          <t>34037.7</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>8,48 USD</t>
+          <t>0,87 USD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4199,34 +4199,34 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.01 09:46</t>
+          <t>2023.11.07 04:45</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.88044</t>
+          <t>0.88566</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.06 16:10</t>
+          <t>2023.11.07 07:04</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.88853</t>
+          <t>0.88327</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-202,67 USD</t>
+          <t>8,48 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4241,27 +4241,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.01 15:30</t>
+          <t>2023.11.01 09:46</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.88422</t>
+          <t>0.88044</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.06 16:10</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.8885</t>
+          <t>0.88853</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-158,74 USD</t>
+          <t>-202,67 USD</t>
         </is>
       </c>
     </row>
@@ -4283,27 +4283,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>2023.11.01 15:30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.88422</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>2023.11.06 16:09</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0.88846</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2023.11.06 16:09</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.88853</t>
+          <t>0.8885</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-4,81 USD</t>
+          <t>-158,74 USD</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.06 16:00</t>
+          <t>2023.11.06 16:09</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.88827</t>
+          <t>0.88846</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4340,19 +4340,19 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.88844</t>
+          <t>0.88853</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-8,47 USD</t>
+          <t>-4,81 USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4367,34 +4367,34 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.01 14:55</t>
+          <t>2023.11.06 16:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.88243</t>
+          <t>0.88827</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.06 15:23</t>
+          <t>2023.11.06 16:09</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.88865</t>
+          <t>0.88844</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-91,92 USD</t>
+          <t>-8,47 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4409,34 +4409,34 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.01 07:03</t>
+          <t>2023.11.01 14:55</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.87923</t>
+          <t>0.88243</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.06 15:01</t>
+          <t>2023.11.06 15:23</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.8881</t>
+          <t>0.88865</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-32,70 USD</t>
+          <t>-91,92 USD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.06 01:12</t>
+          <t>2023.11.01 07:03</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.89004</t>
+          <t>0.87923</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4466,19 +4466,19 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.88811</t>
+          <t>0.8881</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>54,71 USD</t>
+          <t>-32,70 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4493,34 +4493,34 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.06 00:20</t>
+          <t>2023.11.06 01:12</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.88942</t>
+          <t>0.89004</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.06 00:48</t>
+          <t>2023.11.06 15:01</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.89002</t>
+          <t>0.88811</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-14,52 USD</t>
+          <t>54,71 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4535,27 +4535,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.03 16:10</t>
+          <t>2023.11.06 00:20</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.88982</t>
+          <t>0.88942</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.06 00:05</t>
+          <t>2023.11.06 00:48</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.89006</t>
+          <t>0.89002</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-8,82 USD</t>
+          <t>-14,52 USD</t>
         </is>
       </c>
     </row>
@@ -4577,27 +4577,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.03 15:28</t>
+          <t>2023.11.03 16:10</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.88816</t>
+          <t>0.88982</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.03 15:32</t>
+          <t>2023.11.06 00:05</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.88901</t>
+          <t>0.89006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-26,61 USD</t>
+          <t>-8,82 USD</t>
         </is>
       </c>
     </row>
@@ -4619,67 +4619,109 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.03 13:46</t>
+          <t>2023.11.03 15:28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.89038</t>
+          <t>0.88816</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.03 15:21</t>
+          <t>2023.11.03 15:32</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.88846</t>
+          <t>0.88901</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>54,31 USD</t>
+          <t>-26,61 USD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023.11.03 13:46</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.89038</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.11.03 15:21</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.88846</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>54,31 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>AUDCAD</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>2023.11.01 02:01</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>0.87838</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>2023.11.03 13:25</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>0.88591</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>-55,24 USD</t>
         </is>

--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Majid1363FX.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Majid1363FX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,39 +503,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 15:15</t>
+          <t>2023.11.29 18:54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.797</t>
+          <t>25.081</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 15:24</t>
+          <t>2023.11.29 21:55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24.759</t>
+          <t>25.004</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1,85 USD</t>
+          <t>3,80 USD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,39 +545,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.24 19:27</t>
+          <t>2023.11.28 16:53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.89706</t>
+          <t>1.26855</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 04:14</t>
+          <t>2023.11.29 17:37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.89788</t>
+          <t>1.26757</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-3,23 USD</t>
+          <t>0,94 USD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.24 15:51</t>
+          <t>2023.11.29 15:45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.79657</t>
+          <t>25.098</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 03:30</t>
+          <t>2023.11.29 17:35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23.7151</t>
+          <t>24.956</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,38 USD</t>
+          <t>7,05 USD</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EURZAR</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,39 +629,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.24 12:49</t>
+          <t>2023.11.29 16:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.59525</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 02:06</t>
+          <t>2023.11.29 16:14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20.5559</t>
+          <t>25.113</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2,04 USD</t>
+          <t>4,30 USD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -671,39 +671,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.24 10:52</t>
+          <t>2023.11.29 09:23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.753</t>
+          <t>24.934</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.24 19:37</t>
+          <t>2023.11.29 10:33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23.7376</t>
+          <t>24.894</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1,54 USD</t>
+          <t>1,95 USD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -713,69 +713,69 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.24 19:01</t>
+          <t>2023.11.23 12:20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.89666</t>
+          <t>23.54256</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.24 19:11</t>
+          <t>2023.11.29 09:57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>23.5206</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-4,42 USD</t>
+          <t>1,14 USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>USDCZK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.23 12:49</t>
+          <t>2023.11.29 02:36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.89827</t>
+          <t>22.007</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.24 18:14</t>
+          <t>2023.11.29 05:56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8965</t>
+          <t>22.0123</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5,02 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.29 02:28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.8034</t>
+          <t>1.27277</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.24 15:56</t>
+          <t>2023.11.29 05:56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23.7866</t>
+          <t>1.27132</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0,84 USD</t>
+          <t>1,41 USD</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -839,39 +839,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.24 10:30</t>
+          <t>2023.11.28 18:26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.8839</t>
+          <t>0.9041</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.24 10:31</t>
+          <t>2023.11.29 02:14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.88381</t>
+          <t>0.90363</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,30 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -881,27 +881,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.24 10:29</t>
+          <t>2023.11.28 16:45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.25576</t>
+          <t>0.90283</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.24 10:30</t>
+          <t>2023.11.29 01:38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.25557</t>
+          <t>0.90209</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>5,00 USD</t>
         </is>
       </c>
     </row>
@@ -913,37 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GBPSEK</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.24 03:44</t>
+          <t>2023.11.28 17:49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13.16293</t>
+          <t>0.9036</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.24 10:11</t>
+          <t>2023.11.29 00:36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13.17341</t>
+          <t>0.90307</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>0,34 USD</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -965,27 +965,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.23 15:29</t>
+          <t>2023.11.28 17:15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.71719</t>
+          <t>0.83271</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.24 08:39</t>
+          <t>2023.11.28 20:41</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.71698</t>
+          <t>0.83235</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,21 USD</t>
         </is>
       </c>
     </row>
@@ -997,44 +997,44 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.24 08:34</t>
+          <t>2023.11.28 14:34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.25308</t>
+          <t>23.62352</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.24 08:38</t>
+          <t>2023.11.28 20:38</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.25319</t>
+          <t>23.5946</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>3,01 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1044,44 +1044,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.22 17:12</t>
+          <t>2023.11.28 01:38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.89767</t>
+          <t>0.89945</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.23 12:34</t>
+          <t>2023.11.28 16:47</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.89831</t>
+          <t>0.90352</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1,26 USD</t>
+          <t>-30,37 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.22 13:51</t>
+          <t>2023.11.28 15:50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.90033</t>
+          <t>23.68562</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.22 23:21</t>
+          <t>2023.11.28 16:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.89588</t>
+          <t>23.6806</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12,82 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
@@ -1123,49 +1123,49 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.21 16:48</t>
+          <t>2023.11.28 15:07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.89921</t>
+          <t>23.6859</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.22 13:51</t>
+          <t>2023.11.28 15:20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.90034</t>
+          <t>23.70761</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2,33 USD</t>
+          <t>-3,63 USD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1175,39 +1175,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.22 09:42</t>
+          <t>2023.11.28 14:16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.89644</t>
+          <t>23.6094</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.22 12:06</t>
+          <t>2023.11.28 14:22</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.89951</t>
+          <t>23.6006</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-9,14 USD</t>
+          <t>0,84 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1217,27 +1217,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.22 10:20</t>
+          <t>2023.11.28 10:49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.89844</t>
+          <t>23.6444</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.22 11:36</t>
+          <t>2023.11.28 13:29</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.89839</t>
+          <t>23.5706</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-0,03 USD</t>
+          <t>7,80 USD</t>
         </is>
       </c>
     </row>
@@ -1249,44 +1249,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.22 09:33</t>
+          <t>2023.11.28 09:36</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.89582</t>
+          <t>0.88147</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.22 09:36</t>
+          <t>2023.11.28 09:37</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.89593</t>
+          <t>0.88143</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,02 USD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1301,34 +1301,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.21 17:55</t>
+          <t>2023.11.28 04:09</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.89935</t>
+          <t>0.90055</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.22 09:34</t>
+          <t>2023.11.28 04:26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.89586</t>
+          <t>0.90097</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10,00 USD</t>
+          <t>-0,71 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.22 00:32</t>
+          <t>2023.11.23 12:52</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.89832</t>
+          <t>0.89845</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.22 01:43</t>
+          <t>2023.11.28 01:36</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.89873</t>
+          <t>0.89937</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-3,44 USD</t>
+          <t>1,26 USD</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1385,34 +1385,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.21 21:35</t>
+          <t>2023.11.27 15:15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23.3309</t>
+          <t>24.797</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.21 23:47</t>
+          <t>2023.11.27 15:24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23.25979</t>
+          <t>24.759</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3,77 USD</t>
+          <t>1,85 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1427,27 +1427,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.21 11:46</t>
+          <t>2023.11.24 19:27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.90077</t>
+          <t>0.89706</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.21 17:53</t>
+          <t>2023.11.27 04:14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.89939</t>
+          <t>0.89788</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3,85 USD</t>
+          <t>-3,23 USD</t>
         </is>
       </c>
     </row>
@@ -1459,49 +1459,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.21 16:47</t>
+          <t>2023.11.24 15:51</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.89919</t>
+          <t>23.79657</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.21 16:48</t>
+          <t>2023.11.27 03:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.89922</t>
+          <t>23.7151</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-0,12 USD</t>
+          <t>21,38 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>EURZAR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1511,69 +1511,69 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.07 18:32</t>
+          <t>2023.11.24 12:49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>184.718</t>
+          <t>20.59525</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.20 11:40</t>
+          <t>2023.11.27 02:06</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>185.164</t>
+          <t>20.5559</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-6,10 USD</t>
+          <t>2,04 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.20 03:43</t>
+          <t>2023.11.24 10:52</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.89631</t>
+          <t>23.753</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.20 05:29</t>
+          <t>2023.11.24 19:37</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.89783</t>
+          <t>23.7376</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3,19 USD</t>
+          <t>1,54 USD</t>
         </is>
       </c>
     </row>
@@ -1595,39 +1595,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.20 00:31</t>
+          <t>2023.11.24 19:01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.89369</t>
+          <t>0.89666</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.20 02:28</t>
+          <t>2023.11.24 19:11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.89504</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-10,30 USD</t>
+          <t>-4,42 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1637,27 +1637,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.18 06:04</t>
+          <t>2023.11.23 12:49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10110</t>
+          <t>0.89827</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.18 06:05</t>
+          <t>2023.11.24 18:14</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10071</t>
+          <t>0.8965</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>5,02 USD</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1679,39 +1679,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.16 22:18</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13348</t>
+          <t>23.8034</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.18 05:55</t>
+          <t>2023.11.24 15:56</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11336</t>
+          <t>23.7866</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>19,96 USD</t>
+          <t>0,84 USD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1721,27 +1721,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.17 13:13</t>
+          <t>2023.11.24 10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.8923</t>
+          <t>0.8839</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.17 15:35</t>
+          <t>2023.11.24 10:31</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.89131</t>
+          <t>0.88381</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3,38 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1763,27 +1763,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.17 10:11</t>
+          <t>2023.11.24 10:29</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15439</t>
+          <t>1.25576</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.17 13:15</t>
+          <t>2023.11.24 10:30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14411</t>
+          <t>1.25557</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10,09 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -1795,37 +1795,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>GBPSEK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.17 09:41</t>
+          <t>2023.11.24 03:44</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15064</t>
+          <t>13.16293</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.17 13:15</t>
+          <t>2023.11.24 10:11</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14451</t>
+          <t>13.17341</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5,95 USD</t>
+          <t>0,95 USD</t>
         </is>
       </c>
     </row>
@@ -1837,49 +1837,49 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GBPSEK</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.17 09:36</t>
+          <t>2023.11.23 15:29</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13.1199</t>
+          <t>1.71719</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.17 12:49</t>
+          <t>2023.11.24 08:39</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13.12487</t>
+          <t>1.71698</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,42 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1889,27 +1889,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.17 03:16</t>
+          <t>2023.11.24 08:34</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.88879</t>
+          <t>1.25308</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.17 12:49</t>
+          <t>2023.11.24 08:38</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.8921</t>
+          <t>1.25319</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>7,09 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -1921,37 +1921,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.14 05:13</t>
+          <t>2023.11.22 17:12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>186.143</t>
+          <t>0.89767</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.17 10:02</t>
+          <t>2023.11.23 12:34</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>185.524</t>
+          <t>0.89831</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12,26 USD</t>
+          <t>1,26 USD</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1973,76 +1973,76 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.16 22:59</t>
+          <t>2023.11.22 13:51</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>187.115</t>
+          <t>0.90033</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.17 08:41</t>
+          <t>2023.11.22 23:21</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>186.331</t>
+          <t>0.89588</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>20,65 USD</t>
+          <t>12,82 USD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.17 03:21</t>
+          <t>2023.11.21 16:48</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14175</t>
+          <t>0.89921</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.17 03:28</t>
+          <t>2023.11.22 13:51</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14015</t>
+          <t>0.90034</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1,43 USD</t>
+          <t>2,33 USD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2057,39 +2057,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.16 10:47</t>
+          <t>2023.11.22 09:42</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.88954</t>
+          <t>0.89644</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.17 03:08</t>
+          <t>2023.11.22 12:06</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.88877</t>
+          <t>0.89951</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1,54 USD</t>
+          <t>-9,14 USD</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2099,69 +2099,69 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.16 21:33</t>
+          <t>2023.11.22 10:20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13227</t>
+          <t>0.89844</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.16 22:14</t>
+          <t>2023.11.22 11:36</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13272</t>
+          <t>0.89839</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-0,61 USD</t>
+          <t>-0,03 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.16 21:22</t>
+          <t>2023.11.22 09:33</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13452</t>
+          <t>0.89582</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.16 22:14</t>
+          <t>2023.11.22 09:36</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13276</t>
+          <t>0.89593</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1,60 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2183,39 +2183,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.15 14:56</t>
+          <t>2023.11.21 17:55</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>187.61</t>
+          <t>0.89935</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.16 22:13</t>
+          <t>2023.11.22 09:34</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>187.116</t>
+          <t>0.89586</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12,93 USD</t>
+          <t>10,00 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2225,39 +2225,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.16 00:59</t>
+          <t>2023.11.22 00:32</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>187.812</t>
+          <t>0.89832</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.16 11:05</t>
+          <t>2023.11.22 01:43</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>187.651</t>
+          <t>0.89873</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1,02 USD</t>
+          <t>-3,44 USD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.15 17:18</t>
+          <t>2023.11.21 21:35</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.89137</t>
+          <t>23.3309</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.15 19:09</t>
+          <t>2023.11.21 23:47</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.89069</t>
+          <t>23.25979</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1,35 USD</t>
+          <t>3,77 USD</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2309,81 +2309,81 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.14 16:14</t>
+          <t>2023.11.21 11:46</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>187.73</t>
+          <t>0.90077</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.15 14:54</t>
+          <t>2023.11.21 17:53</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>187.668</t>
+          <t>0.89939</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1,46 USD</t>
+          <t>3,85 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.14 20:33</t>
+          <t>2023.11.21 16:47</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>187.925</t>
+          <t>0.89919</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.15 14:53</t>
+          <t>2023.11.21 16:48</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>187.663</t>
+          <t>0.89922</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1,69 USD</t>
+          <t>-0,12 USD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2393,69 +2393,69 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.15 13:37</t>
+          <t>2023.11.07 18:32</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.89204</t>
+          <t>184.718</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.15 14:46</t>
+          <t>2023.11.20 11:40</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.88955</t>
+          <t>185.164</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>5,31 USD</t>
+          <t>-6,10 USD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.14 14:51</t>
+          <t>2023.11.20 03:43</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>34687.6</t>
+          <t>0.89631</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.14 14:53</t>
+          <t>2023.11.20 05:29</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>34730.4</t>
+          <t>0.89783</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-4,78 USD</t>
+          <t>3,19 USD</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2477,123 +2477,123 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.14 14:50</t>
+          <t>2023.11.20 00:31</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>34680.2</t>
+          <t>0.89369</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.14 14:53</t>
+          <t>2023.11.20 02:28</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>34730.4</t>
+          <t>0.89504</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-5,52 USD</t>
+          <t>-10,30 USD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.08 20:07</t>
+          <t>2023.11.18 06:04</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.88449</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.14 14:30</t>
+          <t>2023.11.18 06:05</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.88478</t>
+          <t>10071</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,82 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.14 12:21</t>
+          <t>2023.11.16 22:18</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.88129</t>
+          <t>13348</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.14 14:30</t>
+          <t>2023.11.18 05:55</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.88316</t>
+          <t>11336</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>13,11 USD</t>
+          <t>19,96 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2603,291 +2603,291 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.14 12:08</t>
+          <t>2023.11.17 13:13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>34336.8</t>
+          <t>0.8923</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.14 12:11</t>
+          <t>2023.11.17 15:35</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>34342.1</t>
+          <t>0.89131</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-1,03 USD</t>
+          <t>3,38 USD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.14 11:57</t>
+          <t>2023.11.17 10:11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.88095</t>
+          <t>15439</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.14 12:04</t>
+          <t>2023.11.17 13:15</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.88119</t>
+          <t>14411</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1,29 USD</t>
+          <t>10,09 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.14 11:57</t>
+          <t>2023.11.17 09:41</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>34350.9</t>
+          <t>15064</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.14 12:01</t>
+          <t>2023.11.17 13:15</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>34369.5</t>
+          <t>14451</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1,36 USD</t>
+          <t>5,95 USD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPSEK</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.14 11:38</t>
+          <t>2023.11.17 09:36</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.88152</t>
+          <t>13.1199</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.14 11:49</t>
+          <t>2023.11.17 12:49</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.88127</t>
+          <t>13.12487</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,68 USD</t>
+          <t>0,42 USD</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.14 11:31</t>
+          <t>2023.11.17 03:16</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>186.524</t>
+          <t>0.88879</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.14 11:35</t>
+          <t>2023.11.17 12:49</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>186.513</t>
+          <t>0.8921</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>7,09 USD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.13 20:02</t>
+          <t>2023.11.14 05:13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.88043</t>
+          <t>186.143</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.14 11:33</t>
+          <t>2023.11.17 10:02</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.88166</t>
+          <t>185.524</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>8,44 USD</t>
+          <t>12,26 USD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.13 15:17</t>
+          <t>2023.11.16 22:59</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.88004</t>
+          <t>187.115</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.13 19:28</t>
+          <t>2023.11.17 08:41</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.88035</t>
+          <t>186.331</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1,79 USD</t>
+          <t>20,65 USD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2897,39 +2897,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.13 10:36</t>
+          <t>2023.11.17 03:21</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>185.831</t>
+          <t>14175</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.13 16:12</t>
+          <t>2023.11.17 03:28</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>185.615</t>
+          <t>14015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2,76 USD</t>
+          <t>1,43 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2939,39 +2939,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.13 15:44</t>
+          <t>2023.11.16 10:47</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>34251</t>
+          <t>0.88954</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.13 15:49</t>
+          <t>2023.11.17 03:08</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>34243.4</t>
+          <t>0.88877</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>1,54 USD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2981,123 +2981,123 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.13 10:28</t>
+          <t>2023.11.16 21:33</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.88052</t>
+          <t>13227</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.13 14:57</t>
+          <t>2023.11.16 22:14</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.88017</t>
+          <t>13272</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1,03 USD</t>
+          <t>-0,61 USD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.09 23:05</t>
+          <t>2023.11.16 21:22</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.87955</t>
+          <t>13452</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.13 14:56</t>
+          <t>2023.11.16 22:14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.88005</t>
+          <t>13276</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3,17 USD</t>
+          <t>1,60 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.09 20:06</t>
+          <t>2023.11.15 14:56</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.88029</t>
+          <t>187.61</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.13 10:28</t>
+          <t>2023.11.16 22:13</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.88044</t>
+          <t>187.116</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0,32 USD</t>
+          <t>12,93 USD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3107,39 +3107,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.10 15:32</t>
+          <t>2023.11.16 00:59</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>34027.2</t>
+          <t>187.812</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.10 15:34</t>
+          <t>2023.11.16 11:05</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>34004.4</t>
+          <t>187.651</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1,78 USD</t>
+          <t>1,02 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3149,39 +3149,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.10 13:54</t>
+          <t>2023.11.15 17:18</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>33971.3</t>
+          <t>0.89137</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.10 14:36</t>
+          <t>2023.11.15 19:09</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>34010.8</t>
+          <t>0.89069</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-4,45 USD</t>
+          <t>1,35 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USDZAR</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,27 +3191,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.10 11:57</t>
+          <t>2023.11.14 16:14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>18.7154</t>
+          <t>187.73</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.10 12:59</t>
+          <t>2023.11.15 14:54</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18.7402</t>
+          <t>187.668</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-2,75 USD</t>
+          <t>1,46 USD</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3233,34 +3233,34 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.09 07:49</t>
+          <t>2023.11.14 20:33</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>161.486</t>
+          <t>187.925</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.09 21:34</t>
+          <t>2023.11.15 14:53</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>161.474</t>
+          <t>187.663</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0,03 USD</t>
+          <t>1,69 USD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3270,32 +3270,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.09 20:20</t>
+          <t>2023.11.15 13:37</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.87934</t>
+          <t>0.89204</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.09 21:33</t>
+          <t>2023.11.15 14:46</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.87978</t>
+          <t>0.88955</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2,74 USD</t>
+          <t>5,31 USD</t>
         </is>
       </c>
     </row>
@@ -3312,44 +3312,44 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.09 20:22</t>
+          <t>2023.11.14 14:51</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>33896</t>
+          <t>34687.6</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.09 20:24</t>
+          <t>2023.11.14 14:53</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>33911.1</t>
+          <t>34730.4</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1,01 USD</t>
+          <t>-4,78 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3359,34 +3359,34 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.09 20:05</t>
+          <t>2023.11.14 14:50</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.88013</t>
+          <t>34680.2</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.09 20:09</t>
+          <t>2023.11.14 14:53</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.88001</t>
+          <t>34730.4</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0,20 USD</t>
+          <t>-5,52 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3401,34 +3401,34 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.09 19:09</t>
+          <t>2023.11.08 20:07</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.88159</t>
+          <t>0.88449</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.09 19:40</t>
+          <t>2023.11.14 14:30</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.88222</t>
+          <t>0.88478</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>4,12 USD</t>
+          <t>0,82 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3438,39 +3438,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.09 16:08</t>
+          <t>2023.11.14 12:21</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.88417</t>
+          <t>0.88129</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.09 17:29</t>
+          <t>2023.11.14 14:30</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.8838</t>
+          <t>0.88316</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1,11 USD</t>
+          <t>13,11 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3480,32 +3480,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.09 15:56</t>
+          <t>2023.11.14 12:08</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>34078.9</t>
+          <t>34336.8</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.09 17:09</t>
+          <t>2023.11.14 12:11</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>34095.4</t>
+          <t>34342.1</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2,30 USD</t>
+          <t>-1,03 USD</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3527,123 +3527,123 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.09 15:39</t>
+          <t>2023.11.14 11:57</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>34111.8</t>
+          <t>0.88095</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.09 16:07</t>
+          <t>2023.11.14 12:04</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>34010.3</t>
+          <t>0.88119</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-10,65 USD</t>
+          <t>1,29 USD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.09 09:53</t>
+          <t>2023.11.14 11:57</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.88389</t>
+          <t>34350.9</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.09 11:40</t>
+          <t>2023.11.14 12:01</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.88267</t>
+          <t>34369.5</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>4,20 USD</t>
+          <t>1,36 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>XPDUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.08 13:35</t>
+          <t>2023.11.14 11:38</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1025.5</t>
+          <t>0.88152</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.09 10:48</t>
+          <t>2023.11.14 11:49</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1030.2</t>
+          <t>0.88127</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>4,65 USD</t>
+          <t>0,68 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.08 20:07</t>
+          <t>2023.11.14 11:31</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.88446</t>
+          <t>186.524</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.09 09:40</t>
+          <t>2023.11.14 11:35</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.88384</t>
+          <t>186.513</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2,01 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -3690,32 +3690,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.08 18:45</t>
+          <t>2023.11.13 20:02</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.88549</t>
+          <t>0.88043</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.08 18:49</t>
+          <t>2023.11.14 11:33</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.88538</t>
+          <t>0.88166</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0,35 USD</t>
+          <t>8,44 USD</t>
         </is>
       </c>
     </row>
@@ -3732,74 +3732,74 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.08 13:38</t>
+          <t>2023.11.13 15:17</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.88553</t>
+          <t>0.88004</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.08 16:21</t>
+          <t>2023.11.13 19:28</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.88524</t>
+          <t>0.88035</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1,65 USD</t>
+          <t>1,79 USD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.08 16:08</t>
+          <t>2023.11.13 10:36</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>34195.4</t>
+          <t>185.831</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.08 16:10</t>
+          <t>2023.11.13 16:12</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>34209.2</t>
+          <t>185.615</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0,88 USD</t>
+          <t>2,76 USD</t>
         </is>
       </c>
     </row>
@@ -3811,79 +3811,79 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.08 11:13</t>
+          <t>2023.11.13 15:44</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.886</t>
+          <t>34251</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.08 15:11</t>
+          <t>2023.11.13 15:49</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.88643</t>
+          <t>34243.4</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2,67 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>XPDUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.08 11:58</t>
+          <t>2023.11.13 10:28</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1023.4</t>
+          <t>0.88052</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.08 13:30</t>
+          <t>2023.11.13 14:57</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1023.5</t>
+          <t>0.88017</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>1,03 USD</t>
         </is>
       </c>
     </row>
@@ -3900,32 +3900,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.08 11:13</t>
+          <t>2023.11.09 23:05</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.88593</t>
+          <t>0.87955</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.08 13:19</t>
+          <t>2023.11.13 14:56</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.88559</t>
+          <t>0.88005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2,02 USD</t>
+          <t>3,17 USD</t>
         </is>
       </c>
     </row>
@@ -3942,128 +3942,128 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.08 05:19</t>
+          <t>2023.11.09 20:06</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.88626</t>
+          <t>0.88029</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.08 11:12</t>
+          <t>2023.11.13 10:28</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.88598</t>
+          <t>0.88044</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,78 USD</t>
+          <t>0,32 USD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.08 05:19</t>
+          <t>2023.11.10 15:32</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.88627</t>
+          <t>34027.2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.08 09:22</t>
+          <t>2023.11.10 15:34</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.88686</t>
+          <t>34004.4</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1,91 USD</t>
+          <t>1,78 USD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.07 04:36</t>
+          <t>2023.11.10 13:54</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.88626</t>
+          <t>33971.3</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.08 03:18</t>
+          <t>2023.11.10 14:36</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.88681</t>
+          <t>34010.8</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1,77 USD</t>
+          <t>-4,45 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>COCOA</t>
+          <t>USDZAR</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4073,39 +4073,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.07 10:51</t>
+          <t>2023.11.10 11:57</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3921.5</t>
+          <t>18.7154</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.07 18:26</t>
+          <t>2023.11.10 12:59</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3883.5</t>
+          <t>18.7402</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>7,20 USD</t>
+          <t>-2,75 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4115,27 +4115,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.07 16:10</t>
+          <t>2023.11.09 07:49</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>34087.4</t>
+          <t>161.486</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.07 16:13</t>
+          <t>2023.11.09 21:34</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>34113.7</t>
+          <t>161.474</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-15,65 USD</t>
+          <t>0,03 USD</t>
         </is>
       </c>
     </row>
@@ -4147,86 +4147,86 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.07 15:31</t>
+          <t>2023.11.09 20:20</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>34051.4</t>
+          <t>0.87934</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.07 15:41</t>
+          <t>2023.11.09 21:33</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>34037.7</t>
+          <t>0.87978</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0,87 USD</t>
+          <t>2,74 USD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.07 04:45</t>
+          <t>2023.11.09 20:22</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.88566</t>
+          <t>33896</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.07 07:04</t>
+          <t>2023.11.09 20:24</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.88327</t>
+          <t>33911.1</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>8,48 USD</t>
+          <t>1,01 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4241,34 +4241,34 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.01 09:46</t>
+          <t>2023.11.09 20:05</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.88044</t>
+          <t>0.88013</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.06 16:10</t>
+          <t>2023.11.09 20:09</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.88853</t>
+          <t>0.88001</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-202,67 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4278,39 +4278,39 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.01 15:30</t>
+          <t>2023.11.09 19:09</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.88422</t>
+          <t>0.88159</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.09 19:40</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.8885</t>
+          <t>0.88222</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-158,74 USD</t>
+          <t>4,12 USD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4325,111 +4325,111 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.09 16:08</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.88846</t>
+          <t>0.88417</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.09 17:29</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.88853</t>
+          <t>0.8838</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-4,81 USD</t>
+          <t>1,11 USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.06 16:00</t>
+          <t>2023.11.09 15:56</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.88827</t>
+          <t>34078.9</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.09 17:09</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.88844</t>
+          <t>34095.4</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-8,47 USD</t>
+          <t>2,30 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.01 14:55</t>
+          <t>2023.11.09 15:39</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.88243</t>
+          <t>34111.8</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.06 15:23</t>
+          <t>2023.11.09 16:07</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.88865</t>
+          <t>34010.3</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-91,92 USD</t>
+          <t>-10,65 USD</t>
         </is>
       </c>
     </row>
@@ -4451,76 +4451,76 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.01 07:03</t>
+          <t>2023.11.09 09:53</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.87923</t>
+          <t>0.88389</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.06 15:01</t>
+          <t>2023.11.09 11:40</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.8881</t>
+          <t>0.88267</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-32,70 USD</t>
+          <t>4,20 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>XPDUSD</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.06 01:12</t>
+          <t>2023.11.08 13:35</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.89004</t>
+          <t>1025.5</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.06 15:01</t>
+          <t>2023.11.09 10:48</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.88811</t>
+          <t>1030.2</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>54,71 USD</t>
+          <t>4,65 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4535,34 +4535,34 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.06 00:20</t>
+          <t>2023.11.08 20:07</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.88942</t>
+          <t>0.88446</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.06 00:48</t>
+          <t>2023.11.09 09:40</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.89002</t>
+          <t>0.88384</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-14,52 USD</t>
+          <t>2,01 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4577,34 +4577,34 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.03 16:10</t>
+          <t>2023.11.08 18:45</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.88982</t>
+          <t>0.88549</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.06 00:05</t>
+          <t>2023.11.08 18:49</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.89006</t>
+          <t>0.88538</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-8,82 USD</t>
+          <t>0,35 USD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4619,69 +4619,69 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.03 15:28</t>
+          <t>2023.11.08 13:38</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.88816</t>
+          <t>0.88553</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.03 15:32</t>
+          <t>2023.11.08 16:21</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.88901</t>
+          <t>0.88524</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-26,61 USD</t>
+          <t>1,65 USD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.03 13:46</t>
+          <t>2023.11.08 16:08</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.89038</t>
+          <t>34195.4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.03 15:21</t>
+          <t>2023.11.08 16:10</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.88846</t>
+          <t>34209.2</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>54,31 USD</t>
+          <t>0,88 USD</t>
         </is>
       </c>
     </row>
@@ -4698,30 +4698,912 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>2023.11.08 11:13</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.886</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.11.08 15:11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.88643</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2,67 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>XPDUSD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.11.08 11:58</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1023.4</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.11.08 13:30</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1023.5</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.11.08 11:13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.88593</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.11.08 13:19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.88559</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2,02 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.08 05:19</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.88626</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.08 11:12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.88598</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0,78 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.08 05:19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.88627</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.08 09:22</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.88686</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>1,91 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.11.07 04:36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.88626</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.11.08 03:18</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.88681</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>1,77 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>COCOA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.11.07 10:51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>3921.5</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.11.07 18:26</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>3883.5</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>7,20 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.07 16:10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>34087.4</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.07 16:13</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>34113.7</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>-15,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.11.07 15:31</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>34051.4</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.11.07 15:41</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>34037.7</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0,87 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023.11.07 04:45</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.88566</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2023.11.07 07:04</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.88327</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>8,48 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023.11.01 09:46</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.88044</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:10</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.88853</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>-202,67 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023.11.01 15:30</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.88422</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:09</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.8885</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>-158,74 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.88846</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:09</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.88853</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>-4,81 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.88827</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:09</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.88844</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>-8,47 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023.11.01 14:55</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.88243</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2023.11.06 15:23</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.88865</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>-91,92 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023.11.01 07:03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.87923</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2023.11.06 15:01</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.8881</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-32,70 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023.11.06 01:12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.89004</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2023.11.06 15:01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.88811</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>54,71 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023.11.06 00:20</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.88942</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2023.11.06 00:48</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.89002</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>-14,52 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023.11.03 16:10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.88982</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2023.11.06 00:05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.89006</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>-8,82 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023.11.03 15:28</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0.88816</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2023.11.03 15:32</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.88901</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>-26,61 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023.11.03 13:46</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.89038</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2023.11.03 15:21</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.88846</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>54,31 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>2023.11.01 02:01</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>0.87838</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>2023.11.03 13:25</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>0.88591</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>-55,24 USD</t>
         </is>

--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Majid1363FX.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Majid1363FX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.29 18:54</t>
+          <t>2023.11.30 02:54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.081</t>
+          <t>0.83806</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.29 21:55</t>
+          <t>2023.11.30 11:43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25.004</t>
+          <t>0.8362</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3,80 USD</t>
+          <t>1,32 USD</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.28 16:53</t>
+          <t>2023.11.30 02:43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.26855</t>
+          <t>0.83801</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.29 17:37</t>
+          <t>2023.11.30 11:43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.26757</t>
+          <t>0.83618</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0,94 USD</t>
+          <t>1,30 USD</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.29 15:45</t>
+          <t>2023.11.29 05:24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.098</t>
+          <t>0.83901</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.29 17:35</t>
+          <t>2023.11.30 11:42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24.956</t>
+          <t>0.83624</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7,05 USD</t>
+          <t>1,99 USD</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.29 16:00</t>
+          <t>2023.11.29 03:01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>0.83841</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.29 16:14</t>
+          <t>2023.11.30 11:42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25.113</t>
+          <t>0.83621</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4,30 USD</t>
+          <t>1,56 USD</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.29 09:23</t>
+          <t>2023.11.29 02:21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.934</t>
+          <t>0.84007</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.29 10:33</t>
+          <t>2023.11.30 11:42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24.894</t>
+          <t>0.83619</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1,95 USD</t>
+          <t>2,80 USD</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -713,27 +713,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.23 12:20</t>
+          <t>2023.11.29 02:05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.54256</t>
+          <t>0.83818</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.29 09:57</t>
+          <t>2023.11.30 11:42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23.5206</t>
+          <t>0.83618</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1,14 USD</t>
+          <t>1,42 USD</t>
         </is>
       </c>
     </row>
@@ -745,37 +745,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDCZK</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.29 02:36</t>
+          <t>2023.11.29 02:22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22.007</t>
+          <t>0.90327</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.29 05:56</t>
+          <t>2023.11.30 11:38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22.0123</t>
+          <t>0.89871</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>3,30 USD</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -797,34 +797,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.29 02:28</t>
+          <t>2023.11.29 01:49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.27277</t>
+          <t>0.90192</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.29 05:56</t>
+          <t>2023.11.30 11:38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.27132</t>
+          <t>0.89874</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1,41 USD</t>
+          <t>2,29 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,34 +839,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.28 18:26</t>
+          <t>2023.11.29 01:45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.9041</t>
+          <t>0.90218</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.29 02:14</t>
+          <t>2023.11.30 11:38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.90363</t>
+          <t>0.89877</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,30 USD</t>
+          <t>4,93 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -881,27 +881,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.28 16:45</t>
+          <t>2023.11.29 01:39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.90283</t>
+          <t>0.90196</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.29 01:38</t>
+          <t>2023.11.30 11:38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.90209</t>
+          <t>0.89872</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5,00 USD</t>
+          <t>4,67 USD</t>
         </is>
       </c>
     </row>
@@ -913,37 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>USDCZK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.28 17:49</t>
+          <t>2023.11.28 07:54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.9036</t>
+          <t>22.1842</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.29 00:36</t>
+          <t>2023.11.30 09:58</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.90307</t>
+          <t>22.2762</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,34 USD</t>
+          <t>4,08 USD</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -965,39 +965,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.28 17:15</t>
+          <t>2023.11.30 07:37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.83271</t>
+          <t>25.071</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.28 20:41</t>
+          <t>2023.11.30 09:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.83235</t>
+          <t>25.011</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,21 USD</t>
+          <t>2,95 USD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1007,39 +1007,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.28 14:34</t>
+          <t>2023.11.29 18:54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.62352</t>
+          <t>25.081</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.28 20:38</t>
+          <t>2023.11.29 21:55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23.5946</t>
+          <t>25.004</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3,01 USD</t>
+          <t>3,80 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1049,39 +1049,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.28 01:38</t>
+          <t>2023.11.28 16:53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.89945</t>
+          <t>1.26855</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.28 16:47</t>
+          <t>2023.11.29 17:37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.90352</t>
+          <t>1.26757</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-30,37 USD</t>
+          <t>0,94 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,39 +1091,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.28 15:50</t>
+          <t>2023.11.29 15:45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23.68562</t>
+          <t>25.098</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.28 16:24</t>
+          <t>2023.11.29 17:35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23.6806</t>
+          <t>24.956</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>7,05 USD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1133,39 +1133,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.28 15:07</t>
+          <t>2023.11.29 16:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23.6859</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.28 15:20</t>
+          <t>2023.11.29 16:14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23.70761</t>
+          <t>25.113</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-3,63 USD</t>
+          <t>4,30 USD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1175,34 +1175,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.28 14:16</t>
+          <t>2023.11.29 09:23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23.6094</t>
+          <t>24.934</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.28 14:22</t>
+          <t>2023.11.29 10:33</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23.6006</t>
+          <t>24.894</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,84 USD</t>
+          <t>1,95 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1217,81 +1217,81 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.28 10:49</t>
+          <t>2023.11.23 12:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23.6444</t>
+          <t>23.54256</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.28 13:29</t>
+          <t>2023.11.29 09:57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23.5706</t>
+          <t>23.5206</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7,80 USD</t>
+          <t>1,14 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>USDCZK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.28 09:36</t>
+          <t>2023.11.29 02:36</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.88147</t>
+          <t>22.007</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.28 09:37</t>
+          <t>2023.11.29 05:56</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.88143</t>
+          <t>22.0123</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,02 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1301,34 +1301,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.28 04:09</t>
+          <t>2023.11.29 02:28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.90055</t>
+          <t>1.27277</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.28 04:26</t>
+          <t>2023.11.29 05:56</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.90097</t>
+          <t>1.27132</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-0,71 USD</t>
+          <t>1,41 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1338,44 +1338,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.23 12:52</t>
+          <t>2023.11.28 18:26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.89845</t>
+          <t>0.9041</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.28 01:36</t>
+          <t>2023.11.29 02:14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.89937</t>
+          <t>0.90363</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1,26 USD</t>
+          <t>0,30 USD</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1385,34 +1385,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.27 15:15</t>
+          <t>2023.11.28 16:45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24.797</t>
+          <t>0.90283</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.27 15:24</t>
+          <t>2023.11.29 01:38</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24.759</t>
+          <t>0.90209</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1,85 USD</t>
+          <t>5,00 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.24 19:27</t>
+          <t>2023.11.28 17:49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.89706</t>
+          <t>0.9036</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.27 04:14</t>
+          <t>2023.11.29 00:36</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.89788</t>
+          <t>0.90307</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-3,23 USD</t>
+          <t>0,34 USD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1469,39 +1469,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.24 15:51</t>
+          <t>2023.11.28 17:15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23.79657</t>
+          <t>0.83271</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.27 03:30</t>
+          <t>2023.11.28 20:41</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23.7151</t>
+          <t>0.83235</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>21,38 USD</t>
+          <t>0,21 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EURZAR</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1511,39 +1511,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.24 12:49</t>
+          <t>2023.11.28 14:34</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20.59525</t>
+          <t>23.62352</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.27 02:06</t>
+          <t>2023.11.28 20:38</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20.5559</t>
+          <t>23.5946</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2,04 USD</t>
+          <t>3,01 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1553,39 +1553,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.24 10:52</t>
+          <t>2023.11.28 01:38</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>23.753</t>
+          <t>0.89945</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.24 19:37</t>
+          <t>2023.11.28 16:47</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23.7376</t>
+          <t>0.90352</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1,54 USD</t>
+          <t>-30,37 USD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1595,39 +1595,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.24 19:01</t>
+          <t>2023.11.28 15:50</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.89666</t>
+          <t>23.68562</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.24 19:11</t>
+          <t>2023.11.28 16:24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>23.6806</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-4,42 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1637,34 +1637,34 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.23 12:49</t>
+          <t>2023.11.28 15:07</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.89827</t>
+          <t>23.6859</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.24 18:14</t>
+          <t>2023.11.28 15:20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.8965</t>
+          <t>23.70761</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5,02 USD</t>
+          <t>-3,63 USD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1679,22 +1679,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.28 14:16</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23.8034</t>
+          <t>23.6094</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.24 15:56</t>
+          <t>2023.11.28 14:22</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23.7866</t>
+          <t>23.6006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1706,12 +1706,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1721,39 +1721,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.24 10:30</t>
+          <t>2023.11.28 10:49</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.8839</t>
+          <t>23.6444</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.24 10:31</t>
+          <t>2023.11.28 13:29</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.88381</t>
+          <t>23.5706</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>7,80 USD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1763,160 +1763,160 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.24 10:29</t>
+          <t>2023.11.28 09:36</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.25576</t>
+          <t>0.88147</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.24 10:30</t>
+          <t>2023.11.28 09:37</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.25557</t>
+          <t>0.88143</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>0,02 USD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GBPSEK</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.24 03:44</t>
+          <t>2023.11.28 04:09</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13.16293</t>
+          <t>0.90055</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.24 10:11</t>
+          <t>2023.11.28 04:26</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13.17341</t>
+          <t>0.90097</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>-0,71 USD</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.23 15:29</t>
+          <t>2023.11.23 12:52</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.71719</t>
+          <t>0.89845</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.24 08:39</t>
+          <t>2023.11.28 01:36</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.71698</t>
+          <t>0.89937</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>1,26 USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.24 08:34</t>
+          <t>2023.11.27 15:15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.25308</t>
+          <t>24.797</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.24 08:38</t>
+          <t>2023.11.27 15:24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.25319</t>
+          <t>24.759</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>1,85 USD</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1926,44 +1926,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.22 17:12</t>
+          <t>2023.11.24 19:27</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.89767</t>
+          <t>0.89706</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.23 12:34</t>
+          <t>2023.11.27 04:14</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.89831</t>
+          <t>0.89788</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1,26 USD</t>
+          <t>-3,23 USD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1973,81 +1973,81 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.22 13:51</t>
+          <t>2023.11.24 15:51</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.90033</t>
+          <t>23.79657</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.22 23:21</t>
+          <t>2023.11.27 03:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.89588</t>
+          <t>23.7151</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12,82 USD</t>
+          <t>21,38 USD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>EURZAR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.21 16:48</t>
+          <t>2023.11.24 12:49</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.89921</t>
+          <t>20.59525</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.22 13:51</t>
+          <t>2023.11.27 02:06</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.90034</t>
+          <t>20.5559</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2,33 USD</t>
+          <t>2,04 USD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2057,34 +2057,34 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.22 09:42</t>
+          <t>2023.11.24 10:52</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.89644</t>
+          <t>23.753</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.22 12:06</t>
+          <t>2023.11.24 19:37</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.89951</t>
+          <t>23.7376</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-9,14 USD</t>
+          <t>1,54 USD</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2099,34 +2099,34 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.22 10:20</t>
+          <t>2023.11.24 19:01</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.89844</t>
+          <t>0.89666</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.22 11:36</t>
+          <t>2023.11.24 19:11</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.89839</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-0,03 USD</t>
+          <t>-4,42 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2136,44 +2136,44 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.22 09:33</t>
+          <t>2023.11.23 12:49</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.89582</t>
+          <t>0.89827</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.22 09:36</t>
+          <t>2023.11.24 18:14</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.89593</t>
+          <t>0.8965</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>5,02 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2183,39 +2183,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.21 17:55</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.89935</t>
+          <t>23.8034</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.22 09:34</t>
+          <t>2023.11.24 15:56</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.89586</t>
+          <t>23.7866</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10,00 USD</t>
+          <t>0,84 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2225,27 +2225,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.22 00:32</t>
+          <t>2023.11.24 10:30</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.89832</t>
+          <t>0.8839</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.22 01:43</t>
+          <t>2023.11.24 10:31</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.89873</t>
+          <t>0.88381</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-3,44 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GBPZAR</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2267,111 +2267,111 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.21 21:35</t>
+          <t>2023.11.24 10:29</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>23.3309</t>
+          <t>1.25576</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.21 23:47</t>
+          <t>2023.11.24 10:30</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23.25979</t>
+          <t>1.25557</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3,77 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPSEK</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.21 11:46</t>
+          <t>2023.11.24 03:44</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.90077</t>
+          <t>13.16293</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.21 17:53</t>
+          <t>2023.11.24 10:11</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.89939</t>
+          <t>13.17341</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3,85 USD</t>
+          <t>0,95 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.21 16:47</t>
+          <t>2023.11.23 15:29</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.89919</t>
+          <t>1.71719</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.21 16:48</t>
+          <t>2023.11.24 08:39</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.89922</t>
+          <t>1.71698</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-0,12 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2383,37 +2383,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.07 18:32</t>
+          <t>2023.11.24 08:34</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>184.718</t>
+          <t>1.25308</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.20 11:40</t>
+          <t>2023.11.24 08:38</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>185.164</t>
+          <t>1.25319</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-6,10 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -2435,34 +2435,34 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.20 03:43</t>
+          <t>2023.11.22 17:12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.89631</t>
+          <t>0.89767</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.20 05:29</t>
+          <t>2023.11.23 12:34</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.89783</t>
+          <t>0.89831</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3,19 USD</t>
+          <t>1,26 USD</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2477,81 +2477,81 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.20 00:31</t>
+          <t>2023.11.22 13:51</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.89369</t>
+          <t>0.90033</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.20 02:28</t>
+          <t>2023.11.22 23:21</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.89504</t>
+          <t>0.89588</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-10,30 USD</t>
+          <t>12,82 USD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.18 06:04</t>
+          <t>2023.11.21 16:48</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10110</t>
+          <t>0.89921</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.18 06:05</t>
+          <t>2023.11.22 13:51</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10071</t>
+          <t>0.90034</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>2,33 USD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2561,34 +2561,34 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.16 22:18</t>
+          <t>2023.11.22 09:42</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13348</t>
+          <t>0.89644</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.18 05:55</t>
+          <t>2023.11.22 12:06</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11336</t>
+          <t>0.89951</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>19,96 USD</t>
+          <t>-9,14 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2603,81 +2603,81 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.17 13:13</t>
+          <t>2023.11.22 10:20</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.8923</t>
+          <t>0.89844</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.17 15:35</t>
+          <t>2023.11.22 11:36</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.89131</t>
+          <t>0.89839</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3,38 USD</t>
+          <t>-0,03 USD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.17 10:11</t>
+          <t>2023.11.22 09:33</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>15439</t>
+          <t>0.89582</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.17 13:15</t>
+          <t>2023.11.22 09:36</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14411</t>
+          <t>0.89593</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2687,123 +2687,123 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.17 09:41</t>
+          <t>2023.11.21 17:55</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15064</t>
+          <t>0.89935</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.17 13:15</t>
+          <t>2023.11.22 09:34</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14451</t>
+          <t>0.89586</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5,95 USD</t>
+          <t>10,00 USD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GBPSEK</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.17 09:36</t>
+          <t>2023.11.22 00:32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13.1199</t>
+          <t>0.89832</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.17 12:49</t>
+          <t>2023.11.22 01:43</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13.12487</t>
+          <t>0.89873</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,42 USD</t>
+          <t>-3,44 USD</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPZAR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.17 03:16</t>
+          <t>2023.11.21 21:35</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.88879</t>
+          <t>23.3309</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.17 12:49</t>
+          <t>2023.11.21 23:47</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.8921</t>
+          <t>23.25979</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>7,09 USD</t>
+          <t>3,77 USD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2813,81 +2813,81 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.14 05:13</t>
+          <t>2023.11.21 11:46</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>186.143</t>
+          <t>0.90077</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.17 10:02</t>
+          <t>2023.11.21 17:53</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>185.524</t>
+          <t>0.89939</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>12,26 USD</t>
+          <t>3,85 USD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.16 22:59</t>
+          <t>2023.11.21 16:47</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>187.115</t>
+          <t>0.89919</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.17 08:41</t>
+          <t>2023.11.21 16:48</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>186.331</t>
+          <t>0.89922</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20,65 USD</t>
+          <t>-0,12 USD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2897,27 +2897,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.17 03:21</t>
+          <t>2023.11.07 18:32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14175</t>
+          <t>184.718</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.17 03:28</t>
+          <t>2023.11.20 11:40</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14015</t>
+          <t>185.164</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1,43 USD</t>
+          <t>-6,10 USD</t>
         </is>
       </c>
     </row>
@@ -2934,44 +2934,44 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.16 10:47</t>
+          <t>2023.11.20 03:43</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.88954</t>
+          <t>0.89631</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.17 03:08</t>
+          <t>2023.11.20 05:29</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.88877</t>
+          <t>0.89783</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1,54 USD</t>
+          <t>3,19 USD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>YFIUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.16 21:33</t>
+          <t>2023.11.20 00:31</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13227</t>
+          <t>0.89369</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.16 22:14</t>
+          <t>2023.11.20 02:28</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13272</t>
+          <t>0.89504</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-0,61 USD</t>
+          <t>-10,30 USD</t>
         </is>
       </c>
     </row>
@@ -3023,39 +3023,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.16 21:22</t>
+          <t>2023.11.18 06:04</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13452</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.16 22:14</t>
+          <t>2023.11.18 06:05</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13276</t>
+          <t>10071</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1,60 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3065,39 +3065,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.15 14:56</t>
+          <t>2023.11.16 22:18</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>187.61</t>
+          <t>13348</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.16 22:13</t>
+          <t>2023.11.18 05:55</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>187.116</t>
+          <t>11336</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12,93 USD</t>
+          <t>19,96 USD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3107,39 +3107,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.16 00:59</t>
+          <t>2023.11.17 13:13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>187.812</t>
+          <t>0.8923</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.16 11:05</t>
+          <t>2023.11.17 15:35</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>187.651</t>
+          <t>0.89131</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1,02 USD</t>
+          <t>3,38 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3149,39 +3149,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.15 17:18</t>
+          <t>2023.11.17 10:11</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.89137</t>
+          <t>15439</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.15 19:09</t>
+          <t>2023.11.17 13:15</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.89069</t>
+          <t>14411</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1,35 USD</t>
+          <t>10,09 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,27 +3191,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.14 16:14</t>
+          <t>2023.11.17 09:41</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>187.73</t>
+          <t>15064</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.15 14:54</t>
+          <t>2023.11.17 13:15</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>187.668</t>
+          <t>14451</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1,46 USD</t>
+          <t>5,95 USD</t>
         </is>
       </c>
     </row>
@@ -3223,37 +3223,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GBPSEK</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.14 20:33</t>
+          <t>2023.11.17 09:36</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>187.925</t>
+          <t>13.1199</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.15 14:53</t>
+          <t>2023.11.17 12:49</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>187.663</t>
+          <t>13.12487</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1,69 USD</t>
+          <t>0,42 USD</t>
         </is>
       </c>
     </row>
@@ -3270,44 +3270,44 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.15 13:37</t>
+          <t>2023.11.17 03:16</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.89204</t>
+          <t>0.88879</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.15 14:46</t>
+          <t>2023.11.17 12:49</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.88955</t>
+          <t>0.8921</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5,31 USD</t>
+          <t>7,09 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3317,39 +3317,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.14 14:51</t>
+          <t>2023.11.14 05:13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>34687.6</t>
+          <t>186.143</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.14 14:53</t>
+          <t>2023.11.17 10:02</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>34730.4</t>
+          <t>185.524</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-4,78 USD</t>
+          <t>12,26 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3359,76 +3359,76 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.14 14:50</t>
+          <t>2023.11.16 22:59</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>34680.2</t>
+          <t>187.115</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.14 14:53</t>
+          <t>2023.11.17 08:41</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>34730.4</t>
+          <t>186.331</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-5,52 USD</t>
+          <t>20,65 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.08 20:07</t>
+          <t>2023.11.17 03:21</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.88449</t>
+          <t>14175</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.14 14:30</t>
+          <t>2023.11.17 03:28</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.88478</t>
+          <t>14015</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0,82 USD</t>
+          <t>1,43 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3438,44 +3438,44 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.14 12:21</t>
+          <t>2023.11.16 10:47</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.88129</t>
+          <t>0.88954</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.14 14:30</t>
+          <t>2023.11.17 03:08</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.88316</t>
+          <t>0.88877</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>13,11 USD</t>
+          <t>1,54 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3485,123 +3485,123 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.14 12:08</t>
+          <t>2023.11.16 21:33</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>34336.8</t>
+          <t>13227</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.14 12:11</t>
+          <t>2023.11.16 22:14</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>34342.1</t>
+          <t>13272</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-1,03 USD</t>
+          <t>-0,61 USD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YFIUSD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.14 11:57</t>
+          <t>2023.11.16 21:22</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.88095</t>
+          <t>13452</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.14 12:04</t>
+          <t>2023.11.16 22:14</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.88119</t>
+          <t>13276</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1,29 USD</t>
+          <t>1,60 USD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.14 11:57</t>
+          <t>2023.11.15 14:56</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>34350.9</t>
+          <t>187.61</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.14 12:01</t>
+          <t>2023.11.16 22:13</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>34369.5</t>
+          <t>187.116</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1,36 USD</t>
+          <t>12,93 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3611,39 +3611,39 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.14 11:38</t>
+          <t>2023.11.16 00:59</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.88152</t>
+          <t>187.812</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.14 11:49</t>
+          <t>2023.11.16 11:05</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.88127</t>
+          <t>187.651</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0,68 USD</t>
+          <t>1,02 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3653,123 +3653,123 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.14 11:31</t>
+          <t>2023.11.15 17:18</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>186.524</t>
+          <t>0.89137</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.14 11:35</t>
+          <t>2023.11.15 19:09</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>186.513</t>
+          <t>0.89069</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>1,35 USD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.13 20:02</t>
+          <t>2023.11.14 16:14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.88043</t>
+          <t>187.73</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.14 11:33</t>
+          <t>2023.11.15 14:54</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.88166</t>
+          <t>187.668</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>8,44 USD</t>
+          <t>1,46 USD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.13 15:17</t>
+          <t>2023.11.14 20:33</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.88004</t>
+          <t>187.925</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.13 19:28</t>
+          <t>2023.11.15 14:53</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.88035</t>
+          <t>187.663</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1,79 USD</t>
+          <t>1,69 USD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3779,27 +3779,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.13 10:36</t>
+          <t>2023.11.15 13:37</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>185.831</t>
+          <t>0.89204</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.13 16:12</t>
+          <t>2023.11.15 14:46</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>185.615</t>
+          <t>0.88955</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2,76 USD</t>
+          <t>5,31 USD</t>
         </is>
       </c>
     </row>
@@ -3821,39 +3821,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.13 15:44</t>
+          <t>2023.11.14 14:51</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>34251</t>
+          <t>34687.6</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.13 15:49</t>
+          <t>2023.11.14 14:53</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>34243.4</t>
+          <t>34730.4</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>-4,78 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3863,34 +3863,34 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.13 10:28</t>
+          <t>2023.11.14 14:50</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.88052</t>
+          <t>34680.2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.13 14:57</t>
+          <t>2023.11.14 14:53</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.88017</t>
+          <t>34730.4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1,03 USD</t>
+          <t>-5,52 USD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3905,34 +3905,34 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.09 23:05</t>
+          <t>2023.11.08 20:07</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.87955</t>
+          <t>0.88449</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.13 14:56</t>
+          <t>2023.11.14 14:30</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.88005</t>
+          <t>0.88478</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3,17 USD</t>
+          <t>0,82 USD</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3947,27 +3947,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.09 20:06</t>
+          <t>2023.11.14 12:21</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.88029</t>
+          <t>0.88129</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.13 10:28</t>
+          <t>2023.11.14 14:30</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.88044</t>
+          <t>0.88316</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,32 USD</t>
+          <t>13,11 USD</t>
         </is>
       </c>
     </row>
@@ -3989,27 +3989,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.10 15:32</t>
+          <t>2023.11.14 12:08</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>34027.2</t>
+          <t>34336.8</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.10 15:34</t>
+          <t>2023.11.14 12:11</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>34004.4</t>
+          <t>34342.1</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1,78 USD</t>
+          <t>-1,03 USD</t>
         </is>
       </c>
     </row>
@@ -4021,91 +4021,91 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.10 13:54</t>
+          <t>2023.11.14 11:57</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>33971.3</t>
+          <t>0.88095</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.10 14:36</t>
+          <t>2023.11.14 12:04</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>34010.8</t>
+          <t>0.88119</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-4,45 USD</t>
+          <t>1,29 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>USDZAR</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.10 11:57</t>
+          <t>2023.11.14 11:57</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>18.7154</t>
+          <t>34350.9</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.10 12:59</t>
+          <t>2023.11.14 12:01</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18.7402</t>
+          <t>34369.5</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-2,75 USD</t>
+          <t>1,36 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4115,69 +4115,69 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.09 07:49</t>
+          <t>2023.11.14 11:38</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>161.486</t>
+          <t>0.88152</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.09 21:34</t>
+          <t>2023.11.14 11:49</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>161.474</t>
+          <t>0.88127</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0,03 USD</t>
+          <t>0,68 USD</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.09 20:20</t>
+          <t>2023.11.14 11:31</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.87934</t>
+          <t>186.524</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.09 21:33</t>
+          <t>2023.11.14 11:35</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.87978</t>
+          <t>186.513</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2,74 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4199,34 +4199,34 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.09 20:22</t>
+          <t>2023.11.13 20:02</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>33896</t>
+          <t>0.88043</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.09 20:24</t>
+          <t>2023.11.14 11:33</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>33911.1</t>
+          <t>0.88166</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1,01 USD</t>
+          <t>8,44 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4236,86 +4236,86 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.09 20:05</t>
+          <t>2023.11.13 15:17</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.88013</t>
+          <t>0.88004</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.09 20:09</t>
+          <t>2023.11.13 19:28</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.88001</t>
+          <t>0.88035</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0,20 USD</t>
+          <t>1,79 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.09 19:09</t>
+          <t>2023.11.13 10:36</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.88159</t>
+          <t>185.831</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.09 19:40</t>
+          <t>2023.11.13 16:12</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.88222</t>
+          <t>185.615</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>4,12 USD</t>
+          <t>2,76 USD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4325,69 +4325,69 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.09 16:08</t>
+          <t>2023.11.13 15:44</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.88417</t>
+          <t>34251</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.09 17:29</t>
+          <t>2023.11.13 15:49</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.8838</t>
+          <t>34243.4</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1,11 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.09 15:56</t>
+          <t>2023.11.13 10:28</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>34078.9</t>
+          <t>0.88052</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.09 17:09</t>
+          <t>2023.11.13 14:57</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>34095.4</t>
+          <t>0.88017</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2,30 USD</t>
+          <t>1,03 USD</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4409,27 +4409,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.09 15:39</t>
+          <t>2023.11.09 23:05</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>34111.8</t>
+          <t>0.87955</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.09 16:07</t>
+          <t>2023.11.13 14:56</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>34010.3</t>
+          <t>0.88005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-10,65 USD</t>
+          <t>3,17 USD</t>
         </is>
       </c>
     </row>
@@ -4446,86 +4446,86 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.09 09:53</t>
+          <t>2023.11.09 20:06</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.88389</t>
+          <t>0.88029</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.09 11:40</t>
+          <t>2023.11.13 10:28</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.88267</t>
+          <t>0.88044</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>4,20 USD</t>
+          <t>0,32 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>XPDUSD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.08 13:35</t>
+          <t>2023.11.10 15:32</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1025.5</t>
+          <t>34027.2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.09 10:48</t>
+          <t>2023.11.10 15:34</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1030.2</t>
+          <t>34004.4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>4,65 USD</t>
+          <t>1,78 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4535,39 +4535,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.08 20:07</t>
+          <t>2023.11.10 13:54</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.88446</t>
+          <t>33971.3</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.09 09:40</t>
+          <t>2023.11.10 14:36</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.88384</t>
+          <t>34010.8</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2,01 USD</t>
+          <t>-4,45 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>USDZAR</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4577,39 +4577,39 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.08 18:45</t>
+          <t>2023.11.10 11:57</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.88549</t>
+          <t>18.7154</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.08 18:49</t>
+          <t>2023.11.10 12:59</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.88538</t>
+          <t>18.7402</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0,35 USD</t>
+          <t>-2,75 USD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4619,27 +4619,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.08 13:38</t>
+          <t>2023.11.09 07:49</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.88553</t>
+          <t>161.486</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.08 16:21</t>
+          <t>2023.11.09 21:34</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.88524</t>
+          <t>161.474</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1,65 USD</t>
+          <t>0,03 USD</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4661,27 +4661,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.08 16:08</t>
+          <t>2023.11.09 20:20</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>34195.4</t>
+          <t>0.87934</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.08 16:10</t>
+          <t>2023.11.09 21:33</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>34209.2</t>
+          <t>0.87978</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0,88 USD</t>
+          <t>2,74 USD</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4703,69 +4703,69 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.08 11:13</t>
+          <t>2023.11.09 20:22</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.886</t>
+          <t>33896</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.08 15:11</t>
+          <t>2023.11.09 20:24</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.88643</t>
+          <t>33911.1</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2,67 USD</t>
+          <t>1,01 USD</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>XPDUSD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023.11.08 11:58</t>
+          <t>2023.11.09 20:05</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1023.4</t>
+          <t>0.88013</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023.11.08 13:30</t>
+          <t>2023.11.09 20:09</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1023.5</t>
+          <t>0.88001</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -4782,32 +4782,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023.11.08 11:13</t>
+          <t>2023.11.09 19:09</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.88593</t>
+          <t>0.88159</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2023.11.08 13:19</t>
+          <t>2023.11.09 19:40</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.88559</t>
+          <t>0.88222</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2,02 USD</t>
+          <t>4,12 USD</t>
         </is>
       </c>
     </row>
@@ -4829,39 +4829,39 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023.11.08 05:19</t>
+          <t>2023.11.09 16:08</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0.88626</t>
+          <t>0.88417</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2023.11.08 11:12</t>
+          <t>2023.11.09 17:29</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0.88598</t>
+          <t>0.8838</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0,78 USD</t>
+          <t>1,11 USD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4871,39 +4871,39 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2023.11.08 05:19</t>
+          <t>2023.11.09 15:56</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.88627</t>
+          <t>34078.9</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2023.11.08 09:22</t>
+          <t>2023.11.09 17:09</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.88686</t>
+          <t>34095.4</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1,91 USD</t>
+          <t>2,30 USD</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4913,39 +4913,39 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023.11.07 04:36</t>
+          <t>2023.11.09 15:39</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0.88626</t>
+          <t>34111.8</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023.11.08 03:18</t>
+          <t>2023.11.09 16:07</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0.88681</t>
+          <t>34010.3</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1,77 USD</t>
+          <t>-10,65 USD</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>COCOA</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4955,81 +4955,81 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023.11.07 10:51</t>
+          <t>2023.11.09 09:53</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3921.5</t>
+          <t>0.88389</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023.11.07 18:26</t>
+          <t>2023.11.09 11:40</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3883.5</t>
+          <t>0.88267</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>7,20 USD</t>
+          <t>4,20 USD</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>XPDUSD</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2023.11.07 16:10</t>
+          <t>2023.11.08 13:35</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>34087.4</t>
+          <t>1025.5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2023.11.07 16:13</t>
+          <t>2023.11.09 10:48</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>34113.7</t>
+          <t>1030.2</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>-15,65 USD</t>
+          <t>4,65 USD</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5039,34 +5039,34 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2023.11.07 15:31</t>
+          <t>2023.11.08 20:07</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>34051.4</t>
+          <t>0.88446</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023.11.07 15:41</t>
+          <t>2023.11.09 09:40</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>34037.7</t>
+          <t>0.88384</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0,87 USD</t>
+          <t>2,01 USD</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5081,34 +5081,34 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2023.11.07 04:45</t>
+          <t>2023.11.08 18:45</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0.88566</t>
+          <t>0.88549</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023.11.07 07:04</t>
+          <t>2023.11.08 18:49</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0.88327</t>
+          <t>0.88538</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>8,48 USD</t>
+          <t>0,35 USD</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5123,76 +5123,76 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023.11.01 09:46</t>
+          <t>2023.11.08 13:38</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.88044</t>
+          <t>0.88553</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023.11.06 16:10</t>
+          <t>2023.11.08 16:21</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0.88853</t>
+          <t>0.88524</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>-202,67 USD</t>
+          <t>1,65 USD</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023.11.01 15:30</t>
+          <t>2023.11.08 16:08</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.88422</t>
+          <t>34195.4</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.08 16:10</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0.8885</t>
+          <t>34209.2</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>-158,74 USD</t>
+          <t>0,88 USD</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5202,81 +5202,81 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.08 11:13</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.88846</t>
+          <t>0.886</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.08 15:11</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0.88853</t>
+          <t>0.88643</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>-4,81 USD</t>
+          <t>2,67 USD</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>XPDUSD</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2023.11.06 16:00</t>
+          <t>2023.11.08 11:58</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.88827</t>
+          <t>1023.4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023.11.06 16:09</t>
+          <t>2023.11.08 13:30</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0.88844</t>
+          <t>1023.5</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>-8,47 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5291,27 +5291,27 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023.11.01 14:55</t>
+          <t>2023.11.08 11:13</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.88243</t>
+          <t>0.88593</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023.11.06 15:23</t>
+          <t>2023.11.08 13:19</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0.88865</t>
+          <t>0.88559</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-91,92 USD</t>
+          <t>2,02 USD</t>
         </is>
       </c>
     </row>
@@ -5333,34 +5333,34 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2023.11.01 07:03</t>
+          <t>2023.11.08 05:19</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.87923</t>
+          <t>0.88626</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023.11.06 15:01</t>
+          <t>2023.11.08 11:12</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0.8881</t>
+          <t>0.88598</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-32,70 USD</t>
+          <t>0,78 USD</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5370,39 +5370,39 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2023.11.06 01:12</t>
+          <t>2023.11.08 05:19</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.89004</t>
+          <t>0.88627</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023.11.06 15:01</t>
+          <t>2023.11.08 09:22</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0.88811</t>
+          <t>0.88686</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>54,71 USD</t>
+          <t>1,91 USD</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5412,44 +5412,44 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2023.11.06 00:20</t>
+          <t>2023.11.07 04:36</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.88942</t>
+          <t>0.88626</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023.11.06 00:48</t>
+          <t>2023.11.08 03:18</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0.89002</t>
+          <t>0.88681</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-14,52 USD</t>
+          <t>1,77 USD</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>COCOA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5459,39 +5459,39 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2023.11.03 16:10</t>
+          <t>2023.11.07 10:51</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0.88982</t>
+          <t>3921.5</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023.11.06 00:05</t>
+          <t>2023.11.07 18:26</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0.89006</t>
+          <t>3883.5</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>-8,82 USD</t>
+          <t>7,20 USD</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5501,39 +5501,39 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2023.11.03 15:28</t>
+          <t>2023.11.07 16:10</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0.88816</t>
+          <t>34087.4</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023.11.03 15:32</t>
+          <t>2023.11.07 16:13</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0.88901</t>
+          <t>34113.7</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>-26,61 USD</t>
+          <t>-15,65 USD</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5543,67 +5543,571 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023.11.03 13:46</t>
+          <t>2023.11.07 15:31</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0.89038</t>
+          <t>34051.4</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023.11.03 15:21</t>
+          <t>2023.11.07 15:41</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0.88846</t>
+          <t>34037.7</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>54,31 USD</t>
+          <t>0,87 USD</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023.11.07 04:45</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.88566</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2023.11.07 07:04</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.88327</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>8,48 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023.11.01 09:46</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.88044</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:10</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.88853</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>-202,67 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023.11.01 15:30</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.88422</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:09</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.8885</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>-158,74 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:09</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.88846</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:09</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.88853</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>-4,81 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.88827</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2023.11.06 16:09</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.88844</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>-8,47 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023.11.01 14:55</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.88243</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2023.11.06 15:23</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.88865</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>-91,92 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023.11.01 07:03</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.87923</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2023.11.06 15:01</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.8881</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>-32,70 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023.11.06 01:12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.89004</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2023.11.06 15:01</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.88811</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>54,71 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023.11.06 00:20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.88942</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2023.11.06 00:48</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.89002</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>-14,52 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023.11.03 16:10</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.88982</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2023.11.06 00:05</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.89006</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>-8,82 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023.11.03 15:28</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.88816</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2023.11.03 15:32</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.88901</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>-26,61 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023.11.03 13:46</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.89038</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2023.11.03 15:21</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.88846</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>54,31 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>AUDCAD</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>2023.11.01 02:01</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>0.87838</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>2023.11.03 13:25</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>0.88591</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>-55,24 USD</t>
         </is>
